--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.009842</v>
+        <v>4.521825</v>
       </c>
       <c r="H2">
-        <v>6.019684</v>
+        <v>9.04365</v>
       </c>
       <c r="I2">
-        <v>0.08606200262629651</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J2">
-        <v>0.06189095448397954</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3000656666666666</v>
+        <v>0.3000656666666667</v>
       </c>
       <c r="N2">
-        <v>0.9001969999999999</v>
+        <v>0.900197</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9031502462913331</v>
+        <v>1.356844433175</v>
       </c>
       <c r="R2">
-        <v>5.418901477747999</v>
+        <v>8.141066599049999</v>
       </c>
       <c r="S2">
-        <v>0.08606200262629651</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="T2">
-        <v>0.06189095448397954</v>
+        <v>0.03566291435357289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>4.954374</v>
       </c>
       <c r="I3">
-        <v>0.04722101118039366</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J3">
-        <v>0.0509380452081225</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3000656666666666</v>
+        <v>0.3000656666666667</v>
       </c>
       <c r="N3">
-        <v>0.9001969999999999</v>
+        <v>0.900197</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4955458457419999</v>
+        <v>0.4955458457420001</v>
       </c>
       <c r="R3">
-        <v>4.459912611678</v>
+        <v>4.459912611678001</v>
       </c>
       <c r="S3">
-        <v>0.04722101118039366</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="T3">
-        <v>0.0509380452081225</v>
+        <v>0.019537179749058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.93131633333333</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H4">
-        <v>38.793949</v>
+        <v>42.145147</v>
       </c>
       <c r="I4">
-        <v>0.3697519604819138</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J4">
-        <v>0.3988572376577947</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3000656666666666</v>
+        <v>0.3000656666666667</v>
       </c>
       <c r="N4">
-        <v>0.9001969999999999</v>
+        <v>0.900197</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.880244056439222</v>
+        <v>4.215437210439889</v>
       </c>
       <c r="R4">
-        <v>34.922196507953</v>
+        <v>37.938934893959</v>
       </c>
       <c r="S4">
-        <v>0.3697519604819138</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="T4">
-        <v>0.3988572376577947</v>
+        <v>0.166196034552392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.646261</v>
+        <v>3.9801995</v>
       </c>
       <c r="H5">
-        <v>9.292522</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I5">
-        <v>0.1328529957334834</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J5">
-        <v>0.09554040646375765</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3000656666666666</v>
+        <v>0.3000656666666667</v>
       </c>
       <c r="N5">
-        <v>0.9001969999999999</v>
+        <v>0.900197</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.394183404472333</v>
+        <v>1.194321216433833</v>
       </c>
       <c r="R5">
-        <v>8.365100426833999</v>
+        <v>7.165927298603001</v>
       </c>
       <c r="S5">
-        <v>0.1328529957334834</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="T5">
-        <v>0.09554040646375765</v>
+        <v>0.0313912002075785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.567446666666666</v>
+        <v>51.74080633333333</v>
       </c>
       <c r="H6">
-        <v>4.70234</v>
+        <v>155.222419</v>
       </c>
       <c r="I6">
-        <v>0.04481883073704412</v>
+        <v>0.5922508337707373</v>
       </c>
       <c r="J6">
-        <v>0.0483467754965537</v>
+        <v>0.6121072613990376</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3000656666666666</v>
+        <v>0.3000656666666667</v>
       </c>
       <c r="N6">
-        <v>0.9001969999999999</v>
+        <v>0.900197</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4703369289977776</v>
+        <v>15.52563954628256</v>
       </c>
       <c r="R6">
-        <v>4.233032360979999</v>
+        <v>139.730755916543</v>
       </c>
       <c r="S6">
-        <v>0.04481883073704412</v>
+        <v>0.5922508337707373</v>
       </c>
       <c r="T6">
-        <v>0.0483467754965537</v>
+        <v>0.6121072613990376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.16662466666667</v>
+        <v>11.42032333333333</v>
       </c>
       <c r="H7">
-        <v>33.499874</v>
+        <v>34.26097</v>
       </c>
       <c r="I7">
-        <v>0.3192931992408685</v>
+        <v>0.1307226635109598</v>
       </c>
       <c r="J7">
-        <v>0.344426580689792</v>
+        <v>0.1351054097383612</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3000656666666666</v>
+        <v>0.3000656666666667</v>
       </c>
       <c r="N7">
-        <v>0.9001969999999999</v>
+        <v>0.900197</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>3.350720675019777</v>
+        <v>3.426846934565556</v>
       </c>
       <c r="R7">
-        <v>30.15648607517799</v>
+        <v>30.84162241109</v>
       </c>
       <c r="S7">
-        <v>0.3192931992408685</v>
+        <v>0.1307226635109598</v>
       </c>
       <c r="T7">
-        <v>0.344426580689792</v>
+        <v>0.1351054097383612</v>
       </c>
     </row>
   </sheetData>
